--- a/data-unused/paine.multicrop.xlsx
+++ b/data-unused/paine.multicrop.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-unused\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2023A9-EA12-4A1D-9CEC-27B9E7735A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="10716" windowHeight="8952"/>
+    <workbookView xWindow="41475" yWindow="3465" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WoollyPyrol1" sheetId="2" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,9 +95,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,7 +135,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -240,7 +241,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,23 +383,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>328</v>
       </c>
@@ -430,7 +431,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>312</v>
       </c>
@@ -462,7 +463,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>357</v>
       </c>
@@ -494,7 +495,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>199</v>
       </c>
@@ -526,7 +527,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>196</v>
       </c>
@@ -558,7 +559,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>319</v>
       </c>
@@ -590,7 +591,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>258</v>
       </c>
@@ -622,7 +623,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>239</v>
       </c>
@@ -654,7 +655,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>305</v>
       </c>
@@ -686,7 +687,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>313</v>
       </c>
@@ -718,7 +719,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>319</v>
       </c>
@@ -756,16 +757,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>181</v>
       </c>
@@ -797,7 +798,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>134</v>
       </c>
@@ -829,7 +830,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>125</v>
       </c>
@@ -861,7 +862,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>153</v>
       </c>
@@ -893,7 +894,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>97</v>
       </c>
@@ -925,7 +926,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>135</v>
       </c>
@@ -957,7 +958,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>180</v>
       </c>
@@ -989,7 +990,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>138</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>156</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>141</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>167</v>
       </c>
@@ -1123,16 +1124,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>7.8</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>7.3</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>7.6</v>
       </c>
@@ -1228,7 +1229,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>7.6</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>7.1</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.3</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7.5</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7.3</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8.1999999999999993</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8.5</v>
       </c>
@@ -1490,16 +1491,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>185</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>175</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>169</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>191</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>213</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>217</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>185</v>
       </c>
@@ -1723,7 +1724,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>180</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>254</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>255</v>
       </c>
@@ -1819,7 +1820,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>268</v>
       </c>
@@ -1857,16 +1858,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>189</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>189</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>170</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>219</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>210</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>197</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>196</v>
       </c>
@@ -2090,7 +2091,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>196</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>274</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>268</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>224</v>
       </c>
@@ -2224,16 +2225,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>88</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>83</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>73</v>
       </c>
@@ -2329,7 +2330,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>70</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>78</v>
       </c>
@@ -2393,7 +2394,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>82</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>99</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>93</v>
       </c>
@@ -2489,7 +2490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>115</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>120</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>115</v>
       </c>
@@ -2591,16 +2592,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>130</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>110</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>92</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>113</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>126</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>130</v>
       </c>
@@ -2792,7 +2793,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>145</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>120</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>194</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>211</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>232</v>
       </c>
